--- a/dados/global_acessorios.xlsx
+++ b/dados/global_acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -621,17 +675,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -671,17 +737,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -696,17 +768,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -721,17 +803,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -746,17 +834,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -771,17 +865,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -796,17 +896,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -821,17 +927,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -846,17 +958,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -871,17 +989,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -896,17 +1020,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -921,17 +1051,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -946,17 +1082,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -971,17 +1113,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -996,17 +1144,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1175,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1206,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1237,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1268,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1299,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ca2ab37-6222-4f1c-b7e6-ab59ac830575</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
         </is>
       </c>
     </row>

--- a/dados/global_acessorios.xlsx
+++ b/dados/global_acessorios.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,15 +476,19 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>733</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -507,15 +511,19 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>773.7</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -528,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -538,14 +546,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>514</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -563,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -573,15 +581,19 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>575.88</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -594,29 +606,25 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Bivolt Jfa Bob Storm 200a Dinamico </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>66</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -629,25 +637,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>66</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Automotiva Bivolt Jfa Bob Storm 200a Dinamico </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -660,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -670,15 +682,19 @@
           <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>432.79</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -691,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -701,13 +717,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>39</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -722,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -732,13 +748,13 @@
           <t>Controle Jfa Longa Distancia K1200 Preto Com Verde</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>62</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -753,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -763,14 +779,14 @@
           <t>Fonte Carregador Jfa 120a Bob Storm Bivolt Automático</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>545</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -788,7 +804,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -798,15 +814,19 @@
           <t>Fonte Jfa Automotivo 200a Storm Lite 12v Bivolt Azul</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>815</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -819,7 +839,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -829,15 +849,19 @@
           <t>Fonte E Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>404.56</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -850,7 +874,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -860,13 +884,13 @@
           <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>70</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -881,7 +905,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -891,13 +915,13 @@
           <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>66</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -912,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -922,13 +946,13 @@
           <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>66</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -943,7 +967,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -953,13 +977,13 @@
           <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>57</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -974,7 +998,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -984,13 +1008,13 @@
           <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>73</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1029,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1015,13 +1039,13 @@
           <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>66</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1036,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1046,13 +1070,13 @@
           <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>130</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1067,7 +1091,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1077,13 +1101,13 @@
           <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>70</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1098,7 +1122,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1132,13 @@
           <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>62</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1129,7 +1153,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1139,13 +1163,13 @@
           <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>62</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1160,7 +1184,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1170,13 +1194,13 @@
           <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>62</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1191,7 +1215,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1201,13 +1225,13 @@
           <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>66</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1222,7 +1246,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1232,13 +1256,13 @@
           <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>62</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1253,7 +1277,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1263,13 +1287,13 @@
           <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>60</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1284,7 +1308,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>
@@ -1294,14 +1318,14 @@
           <t xml:space="preserve">Fonte Automotiva 120a Storm Jfa Carregador </t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>634.4</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1319,7 +1343,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9e2739fe-416b-492a-88fb-a96f205a29a6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
         </is>
       </c>
     </row>

--- a/dados/global_acessorios.xlsx
+++ b/dados/global_acessorios.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -618,13 +618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>66</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -637,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -672,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -707,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -738,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -750,13 +754,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>62</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -769,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -804,7 +812,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -839,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -874,7 +882,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -886,13 +894,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>70</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -905,7 +917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -917,13 +929,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>66</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -936,7 +952,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -948,13 +964,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>66</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -967,7 +987,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -998,25 +1018,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1024,19 +1048,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1045,7 +1069,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1060,25 +1084,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>130</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>66</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1091,25 +1119,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1122,25 +1154,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1148,12 +1184,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -1165,13 +1201,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>62</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1184,7 +1224,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -1196,13 +1236,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>62</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1215,7 +1259,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -1227,13 +1271,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>66</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1246,7 +1294,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -1258,13 +1306,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>62</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1277,7 +1329,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1360,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1395,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D033c469e-2ddc-409c-a607-6b55886d27f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
         </is>
       </c>
     </row>

--- a/dados/global_acessorios.xlsx
+++ b/dados/global_acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,929 +483,1199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>733</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>773.7</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>514</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>575.88</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>66</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t xml:space="preserve">Fonte Automotiva Bivolt Jfa Bob Storm 200a Dinamico </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>624.33</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>432.79</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Controle Jfa Longa Distancia K1200 Preto Com Verde</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>62</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Storm Bivolt Automático</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>545</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Fonte Jfa Automotivo 200a Storm Lite 12v Bivolt Azul</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>815</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Fonte E Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>404.56</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>70</v>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>73</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>66</v>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>130</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>66</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E16" t="n">
+        <v>62</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>57</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>62</v>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>70</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>73</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>66</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>66</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>130</v>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>70</v>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>62</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>62</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E23" t="n">
+        <v>66</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>62</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E24" t="n">
+        <v>66</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>66</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E25" t="n">
+        <v>62</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>62</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="E27" t="n">
         <v>60</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>global_acessorios</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t xml:space="preserve">Fonte Automotiva 120a Storm Jfa Carregador </t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="E28" t="n">
         <v>634.4</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D07aecccd-ffa7-487d-8197-c2eaae566461</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
         </is>
       </c>
     </row>

--- a/dados/global_acessorios.xlsx
+++ b/dados/global_acessorios.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>733</v>
+        <v>66</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>773.7</v>
+        <v>432.79</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,22 +583,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>514</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +624,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>575.88</v>
+        <v>733</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -651,19 +647,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -746,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>432.79</v>
+        <v>66</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -786,19 +782,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,18 +804,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>66</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -827,19 +827,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,20 +849,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Jfa Longa Distancia K1200 Preto Com Verde</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -872,19 +872,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,20 +894,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Storm Bivolt Automático</t>
+          <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>545</v>
+        <v>66</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -922,14 +922,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +939,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Jfa Automotivo 200a Storm Lite 12v Bivolt Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>815</v>
+        <v>575.88</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,16 +984,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte E Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>404.56</v>
+        <v>130</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1007,19 +1007,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
+          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
@@ -1048,19 +1048,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,20 +1070,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1098,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,22 +1115,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
+          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>62</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1138,19 +1134,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,18 +1156,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>57</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>514</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1201,20 +1201,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1224,19 +1224,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,20 +1246,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
+          <t xml:space="preserve">Fonte Automotiva 120a Storm Jfa Carregador </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66</v>
+        <v>634.4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1269,19 +1269,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,22 +1291,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
+          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1319,14 +1315,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,20 +1332,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
+          <t>Fonte E Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>404.56</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1359,19 +1355,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1381,16 +1377,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
+          <t>Fonte Jfa Automotivo 200a Storm Lite 12v Bivolt Azul</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>62</v>
+        <v>815</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1409,14 +1405,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1426,20 +1422,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>66</v>
+        <v>773.7</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1454,14 +1450,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,20 +1467,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
+          <t>Fonte Carregador Jfa 120a Bob Storm Bivolt Automático</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66</v>
+        <v>545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1499,14 +1495,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,7 +1512,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1544,14 +1540,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,7 +1557,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1589,14 +1585,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,18 +1602,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
+          <t>Controle Jfa Longa Distancia K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1625,19 +1625,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1647,20 +1647,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Storm Jfa Carregador </t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>634.4</v>
+        <v>66</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dccc69e26-b87d-4bcd-a4b1-81de3894733f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
         </is>
       </c>
     </row>

--- a/dados/global_acessorios.xlsx
+++ b/dados/global_acessorios.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Fonte E Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>404.56</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>432.79</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:251253029#wid=MLB3837968979&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,18 +583,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -602,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>733</v>
+        <v>432.79</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -652,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3487253887-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -692,19 +696,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#wid=MLB3450022473&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,22 +718,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Bivolt Jfa Bob Storm 200a Dinamico </t>
+          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -737,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050176664-fonte-automotiva-bivolt-jfa-bob-storm-200a-dinamico-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 120a Bob Storm Bivolt Automático</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -787,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449963985-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,20 +804,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66</v>
+        <v>773.7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -832,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#wid=MLB3450001233&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,16 +849,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
+          <t>Controle Jfa Longa Distancia K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -872,19 +872,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,20 +894,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
+          <t>Fonte Jfa Automotivo 200a Storm Lite 12v Bivolt Azul</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>815</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -917,19 +917,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,22 +939,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>575.88</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:251253029#wid=MLB3456986219&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,22 +980,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia Redline 1200m Entrada Wr </t>
+          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1007,19 +999,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449904347-controle-jfa-longa-distancia-redline-1200m-entrada-wr-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,18 +1021,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1048,19 +1044,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050100920-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,7 +1066,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Branco Resistente A Agua </t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1079,7 +1075,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1093,19 +1089,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449829257-controle-longa-distancia-jfa-acqua-branco-resistente-a-agua-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251253029#wid=MLB3616227449&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,18 +1111,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Eletromagnético Stereo</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua Preto Resistente A Agua </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1139,14 +1139,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449929417-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050053906-controle-longa-distancia-jfa-acqua-preto-resistente-a-agua-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1156,16 +1156,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t xml:space="preserve">Controle Longa Distancia K1200 Preto 1200m Jfa Eletronico </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1179,19 +1179,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:251253029#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449675865-controle-longa-distancia-k1200-preto-1200m-jfa-eletronico-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1201,16 +1201,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>62</v>
+        <v>575.88</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:251253029#wid=MLB3648965543&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,20 +1246,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Storm Jfa Carregador </t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto 1200m </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>634.4</v>
+        <v>62</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049954464-controle-jfa-longa-distancia-k1200-preto-1200m-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,18 +1291,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>733</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1315,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251253029#wid=MLB3210787670&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=de1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1332,16 +1336,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte E Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>404.56</v>
+        <v>66</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1355,19 +1359,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3487170605-fonte-e-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1377,16 +1381,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Jfa Automotivo 200a Storm Lite 12v Bivolt Azul</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>815</v>
+        <v>66</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1400,19 +1404,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450026499-fonte-jfa-automotivo-200a-storm-lite-12v-bivolt-azul-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049938564-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1422,20 +1426,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Vermelho 1200m </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>773.7</v>
+        <v>62</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1445,19 +1449,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251253029#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=c9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449818587-controle-jfa-longa-distancia-k1200-vermelho-1200m-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1467,16 +1471,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Storm Bivolt Automático</t>
+          <t xml:space="preserve">Controle Longa Distancia K1200 Azul 1200m Jfa Eletronico </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>545</v>
+        <v>66</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1495,14 +1499,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3450034619-fonte-carregador-jfa-120a-bob-storm-bivolt-automatico-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449630269-controle-longa-distancia-k1200-azul-1200m-jfa-eletronico-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1512,20 +1516,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
+          <t xml:space="preserve">Fonte Automotiva 120a Storm Jfa Carregador </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>62</v>
+        <v>634.4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1540,14 +1544,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731042154-fonte-automotiva-120a-storm-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1557,22 +1561,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
+          <t>Voltímetro Sequenciador Jfa Vs5hi 3 Em 1 Voltagem 12v</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1580,19 +1580,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449889659-voltimetro-sequenciador-jfa-vs5hi-3-em-1-voltagem-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Jfa Longa Distancia K1200 Preto Com Verde</t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Preto Com Laranja </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050015720-controle-jfa-longa-distancia-k1200-preto-com-verde-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050027144-controle-jfa-longa-distancia-k1200-preto-com-laranja-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Preto Com Laranja </t>
+          <t xml:space="preserve">Controle Jfa Longa Distancia K1200 Azul 1200m </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449802721-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc9cef7d1-4ddf-4d37-b15b-090f7e021378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4049977502-controle-jfa-longa-distancia-k1200-azul-1200m-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dde1144da-e2cf-4804-a495-9f0231646c8b</t>
         </is>
       </c>
     </row>
